--- a/data/ISMS_TestData.xlsx
+++ b/data/ISMS_TestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2520" windowWidth="13905" windowHeight="10335" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="13905" windowHeight="10335" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
@@ -13,11 +13,12 @@
     <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="124519"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="115">
   <si>
     <t>User</t>
   </si>
@@ -303,6 +304,180 @@
   </si>
   <si>
     <t>ExpNote</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TC36</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>user</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>vanph</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>pass</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Descrip</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Kiểm tra 1: OK</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Kiểm tra 1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>12345678</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TC38</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>admin</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>vanph</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TC39</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Test</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TC40</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TC41</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TC42</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Name</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Cate</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>test123</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TC43</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TC04</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TC05</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>issue</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Cate</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Causing confusion in the use for users</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Files and Documents</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TC07</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TC08</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TC09</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>12345678</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TC12</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TC13</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TC15</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TC17</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TC18</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TC19</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TC23</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Task xu ly CV</t>
+  </si>
+  <si>
+    <t>NAMTT</t>
+  </si>
+  <si>
+    <t>Taasktitle</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>assignee</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TC27</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TC31</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -710,10 +885,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:F48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:XFD7"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -725,7 +900,7 @@
     <col min="5" max="5" width="15.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -736,7 +911,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:6">
       <c r="B2" s="6" t="s">
         <v>6</v>
       </c>
@@ -744,12 +919,12 @@
         <v>42</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:6">
       <c r="D3" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -760,7 +935,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:6">
       <c r="B5" s="6" t="s">
         <v>7</v>
       </c>
@@ -768,9 +943,390 @@
         <v>42</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:6">
       <c r="D6" s="1" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="B8" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="D9" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="B11" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="F12" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="B14" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="D15" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="B17" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="D18" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="B20" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="D21" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="B23" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="D24" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="B26" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="B27" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="D28" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="B30" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="B31" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="D32" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="B34" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D34" s="6"/>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="B35" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D35" s="6"/>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="E36" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="B38" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D38" s="6"/>
+      <c r="E38" s="7"/>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="B39" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D39" s="6"/>
+      <c r="E39" s="7"/>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="F40" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="B42" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="C42" s="7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="B43" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="C43" s="7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="D44" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="B46" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="C46" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D46" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="E46" s="6" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="B47" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="C47" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D47" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="E47" s="6" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="F48" s="1" t="s">
+        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -782,83 +1338,100 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D25"/>
+  <dimension ref="A1:F52"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14:XFD16"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="35.75" customWidth="1"/>
-    <col min="4" max="4" width="9.75" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.75" customWidth="1"/>
-    <col min="8" max="8" width="26" customWidth="1"/>
-    <col min="9" max="9" width="9.375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="34.25" customWidth="1"/>
-    <col min="11" max="11" width="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.75" customWidth="1"/>
+    <col min="5" max="5" width="14.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.75" customWidth="1"/>
+    <col min="7" max="7" width="26" customWidth="1"/>
+    <col min="8" max="8" width="9.375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="34.25" customWidth="1"/>
+    <col min="10" max="10" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+    </row>
+    <row r="2" spans="1:5">
       <c r="B2" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+    </row>
+    <row r="3" spans="1:5">
       <c r="B3" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="D3" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+    </row>
+    <row r="4" spans="1:5">
       <c r="B4" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="D4" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+    </row>
+    <row r="5" spans="1:5">
       <c r="B5" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="D5" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+    </row>
+    <row r="6" spans="1:5">
       <c r="B6" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="D6" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C6" s="6" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="D7" s="1" t="s">
+    </row>
+    <row r="7" spans="1:5">
+      <c r="E7" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:5">
       <c r="A8" s="1" t="s">
         <v>15</v>
       </c>
@@ -869,7 +1442,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:5">
       <c r="B9" s="6" t="s">
         <v>17</v>
       </c>
@@ -877,129 +1450,381 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:5">
       <c r="D10" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:5">
       <c r="A11" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="B12" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="B13" s="6"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="B15" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="B16" s="6"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="B18" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="B19" s="6"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B20" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D20" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="E20" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
-      <c r="B12" s="6" t="s">
+    <row r="21" spans="1:6">
+      <c r="B21" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="D21" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="E21" s="6" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
-      <c r="D13" s="1" t="s">
+    <row r="22" spans="1:6">
+      <c r="F22" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="B15" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="D16" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="B18" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="B19" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="D20" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B21" s="2" t="s">
+    <row r="23" spans="1:6">
+      <c r="A23" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B23" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="C23" s="2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
-      <c r="B22" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="C22" s="8" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="B23" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="C23" s="8" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:6">
       <c r="B24" s="6" t="s">
         <v>40</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="B25" s="6"/>
+      <c r="C25" s="8"/>
       <c r="D25" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="B27" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="B28" s="6"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="B30" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="B31" s="6"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="B33" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="D34" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="B36" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="B37" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="D38" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="B40" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C40" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="E40" s="6" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="F41" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="B43" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C43" s="8" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="D44" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45" s="1" t="s">
         <v>36</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="B46" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C46" s="8" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="B47" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C47" s="8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="B48" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C48" s="8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="D49" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="B51" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C51" s="8" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="D52" s="1" t="s">
+        <v>114</v>
       </c>
     </row>
   </sheetData>
@@ -1011,10 +1836,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1022,6 +1847,7 @@
     <col min="2" max="2" width="18.375" customWidth="1"/>
     <col min="3" max="3" width="11.25" customWidth="1"/>
     <col min="4" max="4" width="21.375" customWidth="1"/>
+    <col min="5" max="5" width="14.5" customWidth="1"/>
     <col min="6" max="6" width="14.25" customWidth="1"/>
     <col min="7" max="7" width="37.125" customWidth="1"/>
   </cols>
@@ -1206,6 +2032,42 @@
     <row r="14" spans="1:8">
       <c r="E14" s="1" t="s">
         <v>67</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="B16" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="17" spans="6:6">
+      <c r="F17" s="1" t="s">
+        <v>71</v>
       </c>
     </row>
   </sheetData>
